--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject9.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject9.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.69604619271405221</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -197,7 +197,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="0">
-        <v>0</v>
+        <v>0.84801421671184252</v>
       </c>
       <c r="Y1" s="0">
         <v>0</v>
@@ -278,7 +278,7 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.54294124669427002</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.83358582451646068</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>0.63661192137624245</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>0</v>
+        <v>0.52370550936647819</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.51881105677874895</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.82693899910519808</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>0</v>
+        <v>0.68868951044275439</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0</v>
+        <v>0.74220130637720083</v>
       </c>
     </row>
     <row r="4">
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.64913944133420642</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.68891313509127272</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0</v>
+        <v>0.80723007187105067</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.7843182018385304</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.82136007281672019</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.74202070690653299</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0</v>
+        <v>0.82057900570917841</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.76604914566636007</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.86996365047366364</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.67286641743535769</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.87092158808039843</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.61453881342789196</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.81221904022357183</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0</v>
+        <v>0.61780708478068869</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="0">
-        <v>1</v>
+        <v>0.69034813830775432</v>
       </c>
       <c r="AS7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>0.85502337726983435</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.60364251118960444</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.79991376111304913</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.50212749694179715</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>0</v>
+        <v>0.87062236908449298</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.67575748702414407</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.90365304676286418</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.87339060703256099</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>0</v>
+        <v>0.56662667234576103</v>
       </c>
       <c r="BF9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.56088634180341712</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.54798424429357384</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.65097733553703907</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>0</v>
+        <v>0.65279104217853556</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.90390105047462677</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.77818739494329492</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.82069711566996606</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.69775225638156257</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.93712924771919781</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0</v>
+        <v>0.97543380256655587</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.6695234798245463</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.73525948446174683</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.8987101801845141</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.55630770592997192</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.93839780892932068</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.97943287626866926</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.60493907219402177</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>0</v>
+        <v>0.81592651595090016</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.79259855929036416</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.86461527506230107</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.69552727634802458</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.74585664321817002</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="0">
-        <v>0</v>
+        <v>0.72245127747316118</v>
       </c>
       <c r="AV14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.55057113644216238</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.89981392093418022</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.9992203561512869</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.61145040270985052</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.88179354227573614</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0</v>
+        <v>0.90593112639355466</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.6337849698520206</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.86797847515473037</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.74567109292961375</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0</v>
+        <v>0.77874491786133426</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0</v>
+        <v>0.80604636814304187</v>
       </c>
     </row>
     <row r="18">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>0.89695165709612179</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.75874988751756223</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.53896140646231461</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.98729729920209852</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.72056795670695961</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.79902137710216803</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.85968806183419488</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.59882292464595288</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.73114684070911906</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.52558684028955971</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.66454790212967851</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.89168537138129178</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.74755336441270304</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0</v>
+        <v>0.73079263793026561</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.89301660332755051</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.85869606979207658</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.92202535980502986</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.66564878463380439</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.69186241970190476</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4714,25 +4714,25 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.62968455194091921</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.56155921730692082</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.58040935556239237</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.92349067531920515</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>0.86680005771130819</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.63217746791193496</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.60014501832584366</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.78581955769766698</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0</v>
+        <v>0.78663608388853634</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.7503311490687572</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.82741919204961545</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.83925336117833338</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.84666908564722898</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.76207933579510667</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>0</v>
+        <v>0.76356726158485455</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.59420849833570633</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.51582304194442785</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0</v>
+        <v>0.89513439418559693</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.82322780238152238</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.67046161831474449</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>0</v>
+        <v>0.63985599831606765</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>0</v>
+        <v>0.58377265973196624</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.63463249269747024</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.96547989442965321</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.91678596825273528</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.9469775601681405</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.95923258697749525</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.92049689854485162</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.63409550689656391</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.56733383348286992</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.59204085006364182</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.75533924104433814</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.54591273261306417</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6419,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>0</v>
+        <v>0.69345246963604046</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.63356994946955991</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.60381047642676178</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.9515176482015959</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.60497498378976267</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.69447767083837619</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.62436690107173332</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.68044677099034712</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7016,22 +7016,22 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.81971020886410229</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.90747844434096703</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.50688619725225514</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.91422614695856907</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.61831528876079345</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.65169301412717806</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.89557572224625615</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.94758832445316621</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.64046072059867698</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.73576749255003726</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.69544512007955839</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.80049824010632498</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>0</v>
+        <v>0.54832601824986349</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.97823678767093125</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.97825982982958726</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.86942142467968531</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.93852534751202388</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.99909555518300741</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.76965800118766237</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.51282987349633014</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.59722338881758918</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.93321053561740119</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.88264823241066503</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.78771311754234752</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.97215269499141965</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>0</v>
+        <v>0.86497309089969587</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.80549391142542437</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.88187739809079446</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.71314458136317316</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.60063593590461806</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="0">
-        <v>0</v>
+        <v>0.88337443437741947</v>
       </c>
       <c r="AK41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.98188470750870727</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.83464345196514644</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.62919235937965556</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.99076363255672062</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8757,13 +8757,13 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>1</v>
+        <v>0.95513115445614383</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.7473915256065764</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.59139091027861235</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.78256021515989693</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.55638049389249811</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.5214579830411159</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="0">
-        <v>1</v>
+        <v>0.91542665410659085</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -9109,22 +9109,22 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.54782812292013294</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
-        <v>0</v>
+        <v>0.65117468080093377</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.68212773165301621</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.93919883510019797</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.78165261169019007</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0</v>
+        <v>0.60939599187827964</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.56065356729416105</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.8598425174210873</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9551,13 +9551,13 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>0</v>
+        <v>0.98093829035708302</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>0</v>
+        <v>0.55609022585656864</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9733,22 +9733,22 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>0</v>
+        <v>0.98231708225056424</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.73369884929495077</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.66028816090783993</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.84847107006672207</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>0</v>
+        <v>0.70353324135139739</v>
       </c>
       <c r="BA47" s="0">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.77519922543576114</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.92843982473813824</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>0</v>
+        <v>0.96266807781868713</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.55827712323217227</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.97390665865915871</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.88610013234555463</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.82002690550187696</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.68140706439315679</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.74820508110515827</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.72926043656973438</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>0</v>
+        <v>0.79254851344871935</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.53478600788833419</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.6550964807740054</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.67672536471780487</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="BG51" s="0">
-        <v>0</v>
+        <v>0.59075660235228644</v>
       </c>
       <c r="BH51" s="0">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0">
         <v>0</v>
@@ -10769,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>0</v>
+        <v>0.57551697608218055</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.850898948747427</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.65427440970077422</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.79881272063758391</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.77429619665521487</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.93756673963542647</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.95514933608278674</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.60784691516770195</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0</v>
+        <v>0.50021260336344253</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>0</v>
+        <v>0.55696853272429636</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.71837841777196398</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.95632729556581419</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>0</v>
+        <v>0.87853115956875638</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0</v>
+        <v>0.50447502222092955</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.93288511223680159</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.77424829931238603</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.55302480784823027</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.69756797852917085</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="0">
-        <v>0</v>
+        <v>0.73238883902594765</v>
       </c>
       <c r="V56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0</v>
+        <v>0.71508556590830175</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11617,16 +11617,16 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.73428628273259733</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.73477018209880041</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="0">
-        <v>0</v>
+        <v>0.89111790748697661</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0</v>
+        <v>0.76896918288983795</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11769,13 +11769,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.95452103075477268</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.71790650763251085</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.5062093277348183</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.72246500378863954</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>0</v>
+        <v>0.93015753473127494</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -12038,16 +12038,16 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.99472040525943006</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.94751865014665282</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>0</v>
+        <v>0.76009391638915336</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0</v>
+        <v>0.6079343212384487</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
       </c>
       <c r="AY59" s="0">
-        <v>0</v>
+        <v>0.68123957050903194</v>
       </c>
       <c r="AZ59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.58031396582687034</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.74970754645673243</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.51124322195766547</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12453,25 +12453,25 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.72090654599572423</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.85908312992331459</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.77344928983775318</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.74230490436848307</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>0</v>
+        <v>0.99907847164827923</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.76557483888473343</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="BC62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.62415803326927377</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.87780793233086385</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.7193162473709418</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12930,13 +12930,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>0.79339279671488161</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>0</v>
+        <v>0.50518614940020856</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>0</v>
+        <v>0.52645528678155862</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.92929144096838878</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.6317145217674488</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.92961055834890771</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>1</v>
+        <v>0.97703163809897142</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13277,22 +13277,22 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0</v>
+        <v>0.5432407417017775</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.84974095107609227</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.78270718928507144</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.55307431438392229</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.73858627289362289</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.58893340312397369</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.65446182656322116</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>0</v>
+        <v>0.59774641405204942</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0</v>
+        <v>0.50740671952023986</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.59329084498024776</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.61074501410846294</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.66520486012862423</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0</v>
+        <v>0.63763885011498034</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.6286668182552928</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.57832850344272391</v>
       </c>
     </row>
     <row r="68">
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.7091476367954499</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0</v>
+        <v>0.99704030991487302</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.67685378597132817</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.84529617278590918</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject9.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject9.xlsx
@@ -197,7 +197,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="0">
-        <v>0.84801421671184252</v>
+        <v>0.86680005771130819</v>
       </c>
       <c r="Y1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.54294124669427002</v>
+        <v>0.69604619271405221</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0.63661192137624245</v>
+        <v>0.85502337726983435</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.52370550936647819</v>
+        <v>0.63356994946955991</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.51881105677874895</v>
+        <v>0.83358582451646068</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>0.68868951044275439</v>
+        <v>0.93015753473127494</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.64913944133420642</v>
+        <v>0.82136007281672019</v>
       </c>
       <c r="F4" s="0">
-        <v>0.68891313509127272</v>
+        <v>0.76604914566636007</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0.80723007187105067</v>
+        <v>0.89695165709612179</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7843182018385304</v>
+        <v>0.82693899910519808</v>
       </c>
       <c r="D5" s="0">
         <v>0.82136007281672019</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.74202070690653299</v>
+        <v>0.87092158808039843</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.87092158808039843</v>
       </c>
       <c r="F7" s="0">
-        <v>0.61453881342789196</v>
+        <v>0.86996365047366364</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0.61780708478068869</v>
+        <v>0.89301660332755051</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="0">
-        <v>0.69034813830775432</v>
+        <v>0.91542665410659085</v>
       </c>
       <c r="AS7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.60364251118960444</v>
+        <v>0.67286641743535769</v>
       </c>
       <c r="G8" s="0">
-        <v>0.79991376111304913</v>
+        <v>0.81221904022357183</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.50212749694179715</v>
+        <v>0.56088634180341712</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.67575748702414407</v>
+        <v>0.90390105047462677</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0.90365304676286418</v>
+        <v>0.98729729920209852</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>0.56662667234576103</v>
+        <v>0.89111790748697661</v>
       </c>
       <c r="BF9" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.54798424429357384</v>
+        <v>0.77818739494329492</v>
       </c>
       <c r="L10" s="0">
-        <v>0.65097733553703907</v>
+        <v>0.6695234798245463</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>0.65279104217853556</v>
+        <v>0.99907847164827923</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.82069711566996606</v>
       </c>
       <c r="M11" s="0">
-        <v>0.69775225638156257</v>
+        <v>0.93839780892932068</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0.6695234798245463</v>
       </c>
       <c r="K12" s="0">
-        <v>0.73525948446174683</v>
+        <v>0.82069711566996606</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.8987101801845141</v>
+        <v>0.97943287626866926</v>
       </c>
       <c r="N12" s="0">
-        <v>0.55630770592997192</v>
+        <v>0.79259855929036416</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.60493907219402177</v>
+        <v>0.86461527506230107</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.55057113644216238</v>
+        <v>0.69552727634802458</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0.61145040270985052</v>
+        <v>0.93712924771919781</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.88179354227573614</v>
+        <v>0.89981392093418022</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.6337849698520206</v>
+        <v>0.9992203561512869</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0.80604636814304187</v>
+        <v>0.99704030991487302</v>
       </c>
     </row>
     <row r="18">
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.75874988751756223</v>
+        <v>0.86797847515473037</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.53896140646231461</v>
+        <v>0.79902137710216803</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.72056795670695961</v>
+        <v>0.74567109292961375</v>
       </c>
       <c r="R19" s="0">
         <v>0.79902137710216803</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.59882292464595288</v>
+        <v>0.66454790212967851</v>
       </c>
       <c r="V20" s="0">
-        <v>0.73114684070911906</v>
+        <v>0.85869606979207658</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.52558684028955971</v>
+        <v>0.85968806183419488</v>
       </c>
       <c r="T21" s="0">
         <v>0.66454790212967851</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.89168537138129178</v>
+        <v>0.92202535980502986</v>
       </c>
       <c r="W21" s="0">
         <v>0.74755336441270304</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0.73079263793026561</v>
+        <v>0.73238883902594765</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.62968455194091921</v>
+        <v>0.74755336441270304</v>
       </c>
       <c r="V23" s="0">
-        <v>0.56155921730692082</v>
+        <v>0.66564878463380439</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.58040935556239237</v>
+        <v>0.60014501832584366</v>
       </c>
       <c r="Y23" s="0">
         <v>0.92349067531920515</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.63217746791193496</v>
+        <v>0.69186241970190476</v>
       </c>
       <c r="W24" s="0">
         <v>0.60014501832584366</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.78581955769766698</v>
+        <v>0.84666908564722898</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.7503311490687572</v>
+        <v>0.92349067531920515</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.83925336117833338</v>
+        <v>0.88187739809079446</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.76207933579510667</v>
+        <v>0.82322780238152238</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.59420849833570633</v>
+        <v>0.82741919204961545</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.51582304194442785</v>
+        <v>0.63463249269747024</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.67046161831474449</v>
+        <v>0.9469775601681405</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>0.63985599831606765</v>
+        <v>0.96266807781868713</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.9469775601681405</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.95923258697749525</v>
+        <v>0.96547989442965321</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0.63409550689656391</v>
+        <v>0.7473915256065764</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.56733383348286992</v>
+        <v>0.91678596825273528</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.59204085006364182</v>
+        <v>0.92049689854485162</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.75533924104433814</v>
+        <v>0.9515176482015959</v>
       </c>
       <c r="AH31" s="0">
-        <v>0.54591273261306417</v>
+        <v>0.81971020886410229</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.60381047642676178</v>
+        <v>0.60497498378976267</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.69447767083837619</v>
+        <v>0.90747844434096703</v>
       </c>
       <c r="AI33" s="0">
         <v>0.62436690107173332</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0.68044677099034712</v>
+        <v>0.74585664321817002</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.50688619725225514</v>
+        <v>0.65169301412717806</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.91422614695856907</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.61831528876079345</v>
+        <v>0.62436690107173332</v>
       </c>
       <c r="AH35" s="0">
         <v>0.65169301412717806</v>
@@ -7240,7 +7240,7 @@
         <v>0.89557572224625615</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.94758832445316621</v>
+        <v>0.97823678767093125</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.64046072059867698</v>
+        <v>0.91422614695856907</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.73576749255003726</v>
+        <v>0.89557572224625615</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.69544512007955839</v>
+        <v>0.97825982982958726</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.80049824010632498</v>
+        <v>0.99909555518300741</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>0.54832601824986349</v>
+        <v>0.88337443437741947</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>0.99909555518300741</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.76965800118766237</v>
+        <v>0.86942142467968531</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.51282987349633014</v>
+        <v>0.88264823241066503</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0.59722338881758918</v>
+        <v>0.95452103075477268</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.93321053561740119</v>
+        <v>0.93852534751202388</v>
       </c>
       <c r="AL39" s="0">
         <v>0.88264823241066503</v>
@@ -8076,7 +8076,7 @@
         <v>0.78771311754234752</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.97215269499141965</v>
+        <v>0.98188470750870727</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>0.86497309089969587</v>
+        <v>0.87062236908449298</v>
       </c>
       <c r="I40" s="0">
-        <v>0.80549391142542437</v>
+        <v>0.87339060703256099</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.71314458136317316</v>
+        <v>0.78771311754234752</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.60063593590461806</v>
+        <v>0.62919235937965556</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0.95513115445614383</v>
+        <v>0.97703163809897142</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.59139091027861235</v>
+        <v>0.83464345196514644</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.78256021515989693</v>
+        <v>0.99076363255672062</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0.55638049389249811</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.5214579830411159</v>
+        <v>0.68212773165301621</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.54782812292013294</v>
+        <v>0.55638049389249811</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="AU44" s="0">
-        <v>0.65117468080093377</v>
+        <v>0.98231708225056424</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.60939599187827964</v>
+        <v>0.76356726158485455</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.56065356729416105</v>
+        <v>0.93919883510019797</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>0.55609022585656864</v>
+        <v>0.72245127747316118</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0.98231708225056424</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.73369884929495077</v>
+        <v>0.78165261169019007</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.66028816090783993</v>
+        <v>0.8598425174210873</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.77519922543576114</v>
+        <v>0.97390665865915871</v>
       </c>
       <c r="AX48" s="0">
         <v>0.92843982473813824</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.55827712323217227</v>
+        <v>0.84847107006672207</v>
       </c>
       <c r="AV49" s="0">
         <v>0.97390665865915871</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.82002690550187696</v>
+        <v>0.92843982473813824</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.68140706439315679</v>
+        <v>0.88610013234555463</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.74820508110515827</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.72926043656973438</v>
+        <v>0.850898948747427</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.53478600788833419</v>
+        <v>0.74820508110515827</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0.6550964807740054</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.67672536471780487</v>
+        <v>0.77429619665521487</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="BG51" s="0">
-        <v>0.59075660235228644</v>
+        <v>0.68123957050903194</v>
       </c>
       <c r="BH51" s="0">
         <v>0</v>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>0.57551697608218055</v>
+        <v>0.70353324135139739</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0.850898948747427</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.65427440970077422</v>
+        <v>0.6550964807740054</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.79881272063758391</v>
+        <v>0.93756673963542647</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.95514933608278674</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.60784691516770195</v>
+        <v>0.93288511223680159</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0.50021260336344253</v>
+        <v>0.78663608388853634</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>0.55696853272429636</v>
+        <v>0.98093829035708302</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.71837841777196398</v>
+        <v>0.95514933608278674</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0.50447502222092955</v>
+        <v>0.90593112639355466</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0.93288511223680159</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.77424829931238603</v>
+        <v>0.95632729556581419</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.55302480784823027</v>
+        <v>0.73428628273259733</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.69756797852917085</v>
+        <v>0.71790650763251085</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.71508556590830175</v>
+        <v>0.89513439418559693</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.76896918288983795</v>
+        <v>0.77874491786133426</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0.71790650763251085</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.5062093277348183</v>
+        <v>0.73477018209880041</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0.6079343212384487</v>
+        <v>0.82057900570917841</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.58031396582687034</v>
+        <v>0.72246500378863954</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.74970754645673243</v>
+        <v>0.99472040525943006</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.51124322195766547</v>
+        <v>0.85908312992331459</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.72090654599572423</v>
+        <v>0.94751865014665282</v>
       </c>
       <c r="BG60" s="0">
         <v>0.85908312992331459</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0.74230490436848307</v>
+        <v>0.84974095107609227</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.76557483888473343</v>
+        <v>0.92929144096838878</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.62415803326927377</v>
+        <v>0.77344928983775318</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.87780793233086385</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.7193162473709418</v>
+        <v>0.78270718928507144</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12930,13 +12930,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0.79339279671488161</v>
+        <v>0.97543380256655587</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>0.50518614940020856</v>
+        <v>0.81592651595090016</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>0.52645528678155862</v>
+        <v>0.58377265973196624</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0.92929144096838878</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.6317145217674488</v>
+        <v>0.87780793233086385</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0.5432407417017775</v>
+        <v>0.76009391638915336</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.78270718928507144</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.55307431438392229</v>
+        <v>0.92961055834890771</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.58893340312397369</v>
+        <v>0.61074501410846294</v>
       </c>
       <c r="BO65" s="0">
         <v>0.65446182656322116</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>0.59774641405204942</v>
+        <v>0.79254851344871935</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0.50740671952023986</v>
+        <v>0.87853115956875638</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.59329084498024776</v>
+        <v>0.73858627289362289</v>
       </c>
       <c r="BM66" s="0">
         <v>0.61074501410846294</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.66520486012862423</v>
+        <v>0.67685378597132817</v>
       </c>
     </row>
     <row r="67">
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0.63763885011498034</v>
+        <v>0.69345246963604046</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.6286668182552928</v>
+        <v>0.65446182656322116</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.57832850344272391</v>
+        <v>0.84529617278590918</v>
       </c>
     </row>
     <row r="68">
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0.7091476367954499</v>
+        <v>0.74220130637720083</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
